--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2977,28 +2977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.6676972435568</v>
+        <v>178.4967551612692</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.7278991764235</v>
+        <v>244.227135132605</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.1391312550955</v>
+        <v>220.9184401305571</v>
       </c>
       <c r="AD2" t="n">
-        <v>157667.6972435568</v>
+        <v>178496.7551612692</v>
       </c>
       <c r="AE2" t="n">
-        <v>215727.8991764235</v>
+        <v>244227.135132605</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.912597004186259e-06</v>
+        <v>6.614439363776587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.177951388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>195139.1312550955</v>
+        <v>220918.4401305571</v>
       </c>
     </row>
     <row r="3">
@@ -3083,28 +3083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.79212846687966</v>
+        <v>112.621096876041</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.5940397512357</v>
+        <v>154.0931532378688</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.6075208697528</v>
+        <v>139.3867189639877</v>
       </c>
       <c r="AD3" t="n">
-        <v>91792.12846687966</v>
+        <v>112621.096876041</v>
       </c>
       <c r="AE3" t="n">
-        <v>125594.0397512357</v>
+        <v>154093.1532378689</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.658168368436398e-06</v>
+        <v>9.565414363661261e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.580729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>113607.5208697528</v>
+        <v>139386.7189639877</v>
       </c>
     </row>
     <row r="4">
@@ -3189,28 +3189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.12836573584491</v>
+        <v>92.54293944897665</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.3716532475181</v>
+        <v>126.6213324603831</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.6470603762098</v>
+        <v>114.5367702045538</v>
       </c>
       <c r="AD4" t="n">
-        <v>82128.36573584491</v>
+        <v>92542.93944897666</v>
       </c>
       <c r="AE4" t="n">
-        <v>112371.6532475181</v>
+        <v>126621.3324603831</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.362521725940841e-06</v>
+        <v>1.075615866186034e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.18359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>101647.0603762098</v>
+        <v>114536.7702045538</v>
       </c>
     </row>
     <row r="5">
@@ -3295,28 +3295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.58332942908126</v>
+        <v>86.32695698367101</v>
       </c>
       <c r="AB5" t="n">
-        <v>89.73400465712845</v>
+        <v>118.116351021564</v>
       </c>
       <c r="AC5" t="n">
-        <v>81.16991719514033</v>
+        <v>106.8434922574365</v>
       </c>
       <c r="AD5" t="n">
-        <v>65583.32942908126</v>
+        <v>86326.95698367101</v>
       </c>
       <c r="AE5" t="n">
-        <v>89734.00465712845</v>
+        <v>118116.351021564</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.874727786289378e-06</v>
+        <v>1.162206842059843e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.947048611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>81169.91719514033</v>
+        <v>106843.4922574365</v>
       </c>
     </row>
     <row r="6">
@@ -3401,28 +3401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.83451425953967</v>
+        <v>83.57814181412941</v>
       </c>
       <c r="AB6" t="n">
-        <v>85.97295447299697</v>
+        <v>114.3553008374325</v>
       </c>
       <c r="AC6" t="n">
-        <v>77.76781636191409</v>
+        <v>103.4413914242103</v>
       </c>
       <c r="AD6" t="n">
-        <v>62834.51425953967</v>
+        <v>83578.14181412941</v>
       </c>
       <c r="AE6" t="n">
-        <v>85972.95447299698</v>
+        <v>114355.3008374325</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.127656371321129e-06</v>
+        <v>1.204965674295014e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.842881944444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>77767.81636191408</v>
+        <v>103441.3914242102</v>
       </c>
     </row>
     <row r="7">
@@ -3507,28 +3507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>61.54186194158294</v>
+        <v>82.2854894961727</v>
       </c>
       <c r="AB7" t="n">
-        <v>84.20429054377402</v>
+        <v>112.5866369082096</v>
       </c>
       <c r="AC7" t="n">
-        <v>76.1679512357602</v>
+        <v>101.8415262980563</v>
       </c>
       <c r="AD7" t="n">
-        <v>61541.86194158295</v>
+        <v>82285.4894961727</v>
       </c>
       <c r="AE7" t="n">
-        <v>84204.29054377403</v>
+        <v>112586.6369082096</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.206924133850461e-06</v>
+        <v>1.218366282847122e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.8125</v>
       </c>
       <c r="AH7" t="n">
-        <v>76167.95123576019</v>
+        <v>101841.5262980563</v>
       </c>
     </row>
     <row r="8">
@@ -3613,28 +3613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>59.79120026972755</v>
+        <v>80.5348278243173</v>
       </c>
       <c r="AB8" t="n">
-        <v>81.80895801060059</v>
+        <v>110.1913043750361</v>
       </c>
       <c r="AC8" t="n">
-        <v>74.00122587768175</v>
+        <v>99.6748009399779</v>
       </c>
       <c r="AD8" t="n">
-        <v>59791.20026972755</v>
+        <v>80534.8278243173</v>
       </c>
       <c r="AE8" t="n">
-        <v>81808.95801060059</v>
+        <v>110191.3043750361</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.329700468039e-06</v>
+        <v>1.239122231311223e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.764756944444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>74001.22587768175</v>
+        <v>99674.8009399779</v>
       </c>
     </row>
     <row r="9">
@@ -3719,28 +3719,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>59.25760547429423</v>
+        <v>80.00123302888399</v>
       </c>
       <c r="AB9" t="n">
-        <v>81.07887007094816</v>
+        <v>109.4612164353837</v>
       </c>
       <c r="AC9" t="n">
-        <v>73.34081650630463</v>
+        <v>99.01439156860079</v>
       </c>
       <c r="AD9" t="n">
-        <v>59257.60547429423</v>
+        <v>80001.23302888399</v>
       </c>
       <c r="AE9" t="n">
-        <v>81078.87007094815</v>
+        <v>109461.2164353837</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.345105863583569e-06</v>
+        <v>1.241726589863752e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.758246527777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>73340.81650630463</v>
+        <v>99014.39156860078</v>
       </c>
     </row>
     <row r="10">
@@ -3825,28 +3825,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>59.30747269593795</v>
+        <v>80.0511002505277</v>
       </c>
       <c r="AB10" t="n">
-        <v>81.14710060358759</v>
+        <v>109.5294469680231</v>
       </c>
       <c r="AC10" t="n">
-        <v>73.40253521267114</v>
+        <v>99.07611027496731</v>
       </c>
       <c r="AD10" t="n">
-        <v>59307.47269593795</v>
+        <v>80051.1002505277</v>
       </c>
       <c r="AE10" t="n">
-        <v>81147.10060358759</v>
+        <v>109529.4469680231</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.357243447952017e-06</v>
+        <v>1.243778508723321e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.75390625</v>
       </c>
       <c r="AH10" t="n">
-        <v>73402.53521267114</v>
+        <v>99076.1102749673</v>
       </c>
     </row>
   </sheetData>
@@ -4122,28 +4122,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.0090924411456</v>
+        <v>136.104976782845</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.7287582378581</v>
+        <v>186.2248337620038</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.5799083288919</v>
+        <v>168.4517969960062</v>
       </c>
       <c r="AD2" t="n">
-        <v>116009.0924411456</v>
+        <v>136104.976782845</v>
       </c>
       <c r="AE2" t="n">
-        <v>158728.7582378581</v>
+        <v>186224.8337620037</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.767381241372951e-06</v>
+        <v>8.256107963053271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.396701388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>143579.9083288919</v>
+        <v>168451.7969960062</v>
       </c>
     </row>
     <row r="3">
@@ -4228,28 +4228,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.09819296527063</v>
+        <v>88.18885031768168</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.8573930641469</v>
+        <v>120.6638756220928</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.65907344542499</v>
+        <v>109.1478846855648</v>
       </c>
       <c r="AD3" t="n">
-        <v>78098.19296527063</v>
+        <v>88188.85031768169</v>
       </c>
       <c r="AE3" t="n">
-        <v>106857.3930641469</v>
+        <v>120663.8756220928</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.480138216864079e-06</v>
+        <v>1.122224509121275e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.233506944444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>96659.07344542499</v>
+        <v>109147.8846855648</v>
       </c>
     </row>
     <row r="4">
@@ -4334,28 +4334,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.48147249336213</v>
+        <v>81.57726732651051</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.12166303652394</v>
+        <v>111.6176160911212</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.09320958183359</v>
+        <v>100.9649874677214</v>
       </c>
       <c r="AD4" t="n">
-        <v>61481.47249336213</v>
+        <v>81577.26732651051</v>
       </c>
       <c r="AE4" t="n">
-        <v>84121.66303652394</v>
+        <v>111617.6160911213</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.116252661153515e-06</v>
+        <v>1.23238623655633e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.944878472222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>76093.20958183359</v>
+        <v>100964.9874677214</v>
       </c>
     </row>
     <row r="5">
@@ -4440,28 +4440,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.22371418219299</v>
+        <v>78.31950901534138</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.66425439303127</v>
+        <v>107.1602074476286</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.06120976326213</v>
+        <v>96.93298764914991</v>
       </c>
       <c r="AD5" t="n">
-        <v>58223.71418219299</v>
+        <v>78319.50901534138</v>
       </c>
       <c r="AE5" t="n">
-        <v>79664.25439303127</v>
+        <v>107160.2074476286</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.43662794383011e-06</v>
+        <v>1.287868539912248e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.819010416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>72061.20976326213</v>
+        <v>96932.9876491499</v>
       </c>
     </row>
     <row r="6">
@@ -4546,28 +4546,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>56.04845290097563</v>
+        <v>76.14424773412398</v>
       </c>
       <c r="AB6" t="n">
-        <v>76.68796594231637</v>
+        <v>104.1839189969136</v>
       </c>
       <c r="AC6" t="n">
-        <v>69.36897410503541</v>
+        <v>94.24075199092319</v>
       </c>
       <c r="AD6" t="n">
-        <v>56048.45290097562</v>
+        <v>76144.24773412399</v>
       </c>
       <c r="AE6" t="n">
-        <v>76687.96594231637</v>
+        <v>104183.9189969136</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.60797125147807e-06</v>
+        <v>1.317541619849963e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.756076388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>69368.97410503541</v>
+        <v>94240.75199092319</v>
       </c>
     </row>
     <row r="7">
@@ -4652,28 +4652,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>55.07495701070967</v>
+        <v>75.17075184385804</v>
       </c>
       <c r="AB7" t="n">
-        <v>75.35598591764756</v>
+        <v>102.8519389722449</v>
       </c>
       <c r="AC7" t="n">
-        <v>68.16411638447487</v>
+        <v>93.03589427036265</v>
       </c>
       <c r="AD7" t="n">
-        <v>55074.95701070967</v>
+        <v>75170.75184385804</v>
       </c>
       <c r="AE7" t="n">
-        <v>75355.98591764756</v>
+        <v>102851.9389722449</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.708710298759254e-06</v>
+        <v>1.33498751746836e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.719184027777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>68164.11638447487</v>
+        <v>93035.89427036265</v>
       </c>
     </row>
   </sheetData>
@@ -4949,28 +4949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.83928928874187</v>
+        <v>72.95474441000815</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.34773199549655</v>
+        <v>99.81989983790479</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.01138704717911</v>
+        <v>90.29322869550937</v>
       </c>
       <c r="AD2" t="n">
-        <v>63839.28928874186</v>
+        <v>72954.74441000815</v>
       </c>
       <c r="AE2" t="n">
-        <v>87347.73199549655</v>
+        <v>99819.89983790478</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.158357162751448e-06</v>
+        <v>1.3545152156796e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.268229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>79011.38704717912</v>
+        <v>90293.22869550937</v>
       </c>
     </row>
     <row r="3">
@@ -5055,28 +5055,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.31637634047329</v>
+        <v>64.46176671133215</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.37210944332781</v>
+        <v>88.19943306684989</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.32396426138412</v>
+        <v>79.78180296365271</v>
       </c>
       <c r="AD3" t="n">
-        <v>46316.37634047329</v>
+        <v>64461.76671133215</v>
       </c>
       <c r="AE3" t="n">
-        <v>63372.1094433278</v>
+        <v>88199.43306684989</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.388293957062105e-06</v>
+        <v>1.587245724138559e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.788628472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>57323.96426138412</v>
+        <v>79781.80296365271</v>
       </c>
     </row>
   </sheetData>
@@ -5352,28 +5352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.1432717647107</v>
+        <v>90.96594112206316</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.70960716496286</v>
+        <v>124.4636137772451</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.28890079696713</v>
+        <v>112.5849811641567</v>
       </c>
       <c r="AD2" t="n">
-        <v>72143.27176471071</v>
+        <v>90965.94112206316</v>
       </c>
       <c r="AE2" t="n">
-        <v>98709.60716496286</v>
+        <v>124463.6137772451</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.569478615513185e-06</v>
+        <v>1.19681633123915e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.404947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>89288.90079696712</v>
+        <v>112584.9811641567</v>
       </c>
     </row>
     <row r="3">
@@ -5458,28 +5458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.11984671682172</v>
+        <v>72.02776742019475</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.6809177601727</v>
+        <v>98.5515690251042</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.74435297746682</v>
+        <v>89.1459455953686</v>
       </c>
       <c r="AD3" t="n">
-        <v>53119.84671682172</v>
+        <v>72027.76742019475</v>
       </c>
       <c r="AE3" t="n">
-        <v>72680.9177601727</v>
+        <v>98551.5690251042</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.720653026056922e-06</v>
+        <v>1.406535308235275e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.897135416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>65744.35297746681</v>
+        <v>89145.9455953686</v>
       </c>
     </row>
     <row r="4">
@@ -5564,28 +5564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>49.62438190103242</v>
+        <v>68.53230260440547</v>
       </c>
       <c r="AB4" t="n">
-        <v>67.89826859018804</v>
+        <v>93.76891985511953</v>
       </c>
       <c r="AC4" t="n">
-        <v>61.41815313177371</v>
+        <v>84.81974574967548</v>
       </c>
       <c r="AD4" t="n">
-        <v>49624.38190103242</v>
+        <v>68532.30260440547</v>
       </c>
       <c r="AE4" t="n">
-        <v>67898.26859018803</v>
+        <v>93768.91985511953</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.135859416675787e-06</v>
+        <v>1.482176895370376e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.749565972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>61418.15313177371</v>
+        <v>84819.74574967548</v>
       </c>
     </row>
     <row r="5">
@@ -5670,28 +5670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>49.7179537902964</v>
+        <v>68.62587449366944</v>
       </c>
       <c r="AB5" t="n">
-        <v>68.02629777717935</v>
+        <v>93.89694904211085</v>
       </c>
       <c r="AC5" t="n">
-        <v>61.5339633928487</v>
+        <v>84.93555601075049</v>
       </c>
       <c r="AD5" t="n">
-        <v>49717.9537902964</v>
+        <v>68625.87449366944</v>
       </c>
       <c r="AE5" t="n">
-        <v>68026.29777717935</v>
+        <v>93896.94904211085</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.138540163175935e-06</v>
+        <v>1.482665269163649e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.749565972222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>61533.9633928487</v>
+        <v>84935.55601075049</v>
       </c>
     </row>
   </sheetData>
@@ -5967,28 +5967,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.1336325428416</v>
+        <v>61.65359162240438</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.38558308354951</v>
+        <v>84.35716402223949</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.62246778576604</v>
+        <v>76.30623468400023</v>
       </c>
       <c r="AD2" t="n">
-        <v>44133.6325428416</v>
+        <v>61653.59162240438</v>
       </c>
       <c r="AE2" t="n">
-        <v>60385.58308354951</v>
+        <v>84357.16402223949</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.422263430965884e-06</v>
+        <v>1.650492266747684e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.884114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>54622.46778576604</v>
+        <v>76306.23468400023</v>
       </c>
     </row>
     <row r="3">
@@ -6073,28 +6073,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.06978678939689</v>
+        <v>61.58974586895967</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.29822650701065</v>
+        <v>84.26980744570064</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.54344839828629</v>
+        <v>76.22721529652048</v>
       </c>
       <c r="AD3" t="n">
-        <v>44069.78678939689</v>
+        <v>61589.74586895967</v>
       </c>
       <c r="AE3" t="n">
-        <v>60298.22650701065</v>
+        <v>84269.80744570063</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.455172079593716e-06</v>
+        <v>1.656941301560541e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.873263888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>54543.44839828629</v>
+        <v>76227.21529652049</v>
       </c>
     </row>
   </sheetData>
@@ -6370,28 +6370,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.4627447135739</v>
+        <v>142.8994985481773</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.558929992034</v>
+        <v>195.5213981944715</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.567340884076</v>
+        <v>176.8611103668524</v>
       </c>
       <c r="AD2" t="n">
-        <v>122462.7447135739</v>
+        <v>142899.4985481774</v>
       </c>
       <c r="AE2" t="n">
-        <v>167558.929992034</v>
+        <v>195521.3981944715</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.552263380706321e-06</v>
+        <v>7.832083597136531e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.563802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>151567.340884076</v>
+        <v>176861.1103668524</v>
       </c>
     </row>
     <row r="3">
@@ -6476,28 +6476,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.2626156227286</v>
+        <v>101.4434364021683</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.1870957485536</v>
+        <v>138.7993850539467</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.5755553824091</v>
+        <v>125.5525665505957</v>
       </c>
       <c r="AD3" t="n">
-        <v>81262.6156227286</v>
+        <v>101443.4364021683</v>
       </c>
       <c r="AE3" t="n">
-        <v>111187.0957485536</v>
+        <v>138799.3850539466</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.262556744453678e-06</v>
+        <v>1.077461118841548e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.315972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>100575.5553824091</v>
+        <v>125552.5665505957</v>
       </c>
     </row>
     <row r="4">
@@ -6582,28 +6582,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.2609875054748</v>
+        <v>84.43678350404178</v>
       </c>
       <c r="AB4" t="n">
-        <v>101.6071592684996</v>
+        <v>115.5301322781679</v>
       </c>
       <c r="AC4" t="n">
-        <v>91.90991459448313</v>
+        <v>104.5040986011285</v>
       </c>
       <c r="AD4" t="n">
-        <v>74260.9875054748</v>
+        <v>84436.78350404178</v>
       </c>
       <c r="AE4" t="n">
-        <v>101607.1592684996</v>
+        <v>115530.1322781679</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.90951627241251e-06</v>
+        <v>1.188769289814541e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.005642361111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>91909.91459448313</v>
+        <v>104504.0986011285</v>
       </c>
     </row>
     <row r="5">
@@ -6688,28 +6688,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.29899464104092</v>
+        <v>80.5650667665012</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.50374467173781</v>
+        <v>110.2326786297801</v>
       </c>
       <c r="AC5" t="n">
-        <v>74.62970307501945</v>
+        <v>99.71222649391825</v>
       </c>
       <c r="AD5" t="n">
-        <v>60298.99464104092</v>
+        <v>80565.0667665012</v>
       </c>
       <c r="AE5" t="n">
-        <v>82503.7446717378</v>
+        <v>110232.6786297801</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.270661160559967e-06</v>
+        <v>1.250903589131171e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.855902777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>74629.70307501945</v>
+        <v>99712.22649391825</v>
       </c>
     </row>
     <row r="6">
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.85771310345965</v>
+        <v>78.12378522891994</v>
       </c>
       <c r="AB6" t="n">
-        <v>79.16347557028055</v>
+        <v>106.8924095283229</v>
       </c>
       <c r="AC6" t="n">
-        <v>71.60822456850708</v>
+        <v>96.69074798740589</v>
       </c>
       <c r="AD6" t="n">
-        <v>57857.71310345965</v>
+        <v>78123.78522891994</v>
       </c>
       <c r="AE6" t="n">
-        <v>79163.47557028056</v>
+        <v>106892.4095283229</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.47664679514606e-06</v>
+        <v>1.286343030458865e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>71608.22456850708</v>
+        <v>96690.74798740589</v>
       </c>
     </row>
     <row r="7">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>56.11234333916106</v>
+        <v>76.37841546462133</v>
       </c>
       <c r="AB7" t="n">
-        <v>76.77538365848882</v>
+        <v>104.5043176165311</v>
       </c>
       <c r="AC7" t="n">
-        <v>69.44804879706795</v>
+        <v>94.53057221596673</v>
       </c>
       <c r="AD7" t="n">
-        <v>56112.34333916106</v>
+        <v>76378.41546462133</v>
       </c>
       <c r="AE7" t="n">
-        <v>76775.38365848882</v>
+        <v>104504.3176165311</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.614289612309073e-06</v>
+        <v>1.310024218483597e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.727864583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>69448.04879706795</v>
+        <v>94530.57221596673</v>
       </c>
     </row>
     <row r="8">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>56.38996793103836</v>
+        <v>76.65604005649864</v>
       </c>
       <c r="AB8" t="n">
-        <v>77.15524187302773</v>
+        <v>104.88417583107</v>
       </c>
       <c r="AC8" t="n">
-        <v>69.79165387674574</v>
+        <v>94.87417729564453</v>
       </c>
       <c r="AD8" t="n">
-        <v>56389.96793103836</v>
+        <v>76656.04005649863</v>
       </c>
       <c r="AE8" t="n">
-        <v>77155.24187302773</v>
+        <v>104884.17583107</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.578012402500463e-06</v>
+        <v>1.303782792710737e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.740885416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>69791.65387674574</v>
+        <v>94874.17729564453</v>
       </c>
     </row>
   </sheetData>
@@ -7303,28 +7303,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.61539242325448</v>
+        <v>59.76500253452519</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.30825997190459</v>
+        <v>81.77311311353425</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.74340147635455</v>
+        <v>73.96880196728274</v>
       </c>
       <c r="AD2" t="n">
-        <v>42615.39242325448</v>
+        <v>59765.00253452519</v>
       </c>
       <c r="AE2" t="n">
-        <v>58308.25997190459</v>
+        <v>81773.11311353424</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.41666429258721e-06</v>
+        <v>1.687255341054525e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.953559027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>52743.40147635455</v>
+        <v>73968.80196728275</v>
       </c>
     </row>
     <row r="3">
@@ -7409,28 +7409,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.81062873101769</v>
+        <v>59.96023884228839</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.57539090140408</v>
+        <v>82.04024404303374</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.9850378048633</v>
+        <v>74.21043829579152</v>
       </c>
       <c r="AD3" t="n">
-        <v>42810.62873101768</v>
+        <v>59960.23884228839</v>
       </c>
       <c r="AE3" t="n">
-        <v>58575.39090140408</v>
+        <v>82040.24404303374</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.417237049599296e-06</v>
+        <v>1.68737015938328e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.953559027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>52985.03780486331</v>
+        <v>74210.43829579152</v>
       </c>
     </row>
   </sheetData>
@@ -7706,28 +7706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.98990003090817</v>
+        <v>107.6184035195378</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.3916630626622</v>
+        <v>147.2482474842501</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.9016517107535</v>
+        <v>133.1950814086066</v>
       </c>
       <c r="AD2" t="n">
-        <v>87989.90003090817</v>
+        <v>107618.4035195378</v>
       </c>
       <c r="AE2" t="n">
-        <v>120391.6630626622</v>
+        <v>147248.2474842501</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.540406342317114e-06</v>
+        <v>9.812471322662936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.897569444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>108901.6517107535</v>
+        <v>133195.0814086066</v>
       </c>
     </row>
     <row r="3">
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.10268257706512</v>
+        <v>78.91702382993098</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.54933889710051</v>
+        <v>107.9777535774429</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.52568269361505</v>
+        <v>97.67250832376818</v>
       </c>
       <c r="AD3" t="n">
-        <v>69102.68257706512</v>
+        <v>78917.02382993099</v>
       </c>
       <c r="AE3" t="n">
-        <v>94549.33889710052</v>
+        <v>107977.7535774429</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.192427638927915e-06</v>
+        <v>1.273832379554174e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.003472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>85525.68269361505</v>
+        <v>97672.50832376818</v>
       </c>
     </row>
     <row r="4">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.56197982937463</v>
+        <v>75.10514246343264</v>
       </c>
       <c r="AB4" t="n">
-        <v>76.02235202407498</v>
+        <v>102.7621693234653</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.76688544495579</v>
+        <v>92.9546921108701</v>
       </c>
       <c r="AD4" t="n">
-        <v>55561.97982937463</v>
+        <v>75105.14246343264</v>
       </c>
       <c r="AE4" t="n">
-        <v>76022.35202407498</v>
+        <v>102762.1693234653</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.593068428046349e-06</v>
+        <v>1.344788840344549e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.845052083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>68766.88544495578</v>
+        <v>92954.69211087009</v>
       </c>
     </row>
     <row r="5">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>52.58038168257645</v>
+        <v>72.12354431663447</v>
       </c>
       <c r="AB5" t="n">
-        <v>71.94279790080105</v>
+        <v>98.68261520019139</v>
       </c>
       <c r="AC5" t="n">
-        <v>65.07667824151565</v>
+        <v>89.26448490742996</v>
       </c>
       <c r="AD5" t="n">
-        <v>52580.38168257645</v>
+        <v>72123.54431663446</v>
       </c>
       <c r="AE5" t="n">
-        <v>71942.79790080106</v>
+        <v>98682.61520019139</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.900166658354217e-06</v>
+        <v>1.399178218883817e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>65076.67824151566</v>
+        <v>89264.48490742996</v>
       </c>
     </row>
     <row r="6">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>52.42101038209387</v>
+        <v>71.96417301615188</v>
       </c>
       <c r="AB6" t="n">
-        <v>71.72473905651533</v>
+        <v>98.46455635590566</v>
       </c>
       <c r="AC6" t="n">
-        <v>64.879430627281</v>
+        <v>89.06723729319529</v>
       </c>
       <c r="AD6" t="n">
-        <v>52421.01038209387</v>
+        <v>71964.17301615188</v>
       </c>
       <c r="AE6" t="n">
-        <v>71724.73905651533</v>
+        <v>98464.55635590566</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.934299740984028e-06</v>
+        <v>1.405223441449912e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.721354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>64879.43062728099</v>
+        <v>89067.23729319529</v>
       </c>
     </row>
   </sheetData>
@@ -8427,28 +8427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.9824211238719</v>
+        <v>129.9015531655023</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.4828006635944</v>
+        <v>177.7370358930248</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.1209333722392</v>
+        <v>160.7740626429408</v>
       </c>
       <c r="AD2" t="n">
-        <v>109982.4211238719</v>
+        <v>129901.5531655023</v>
       </c>
       <c r="AE2" t="n">
-        <v>150482.8006635944</v>
+        <v>177737.0358930248</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.9932398193036e-06</v>
+        <v>8.707774239137288e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.23828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>136120.9333722392</v>
+        <v>160774.0626429408</v>
       </c>
     </row>
     <row r="3">
@@ -8533,28 +8533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.45431206536846</v>
+        <v>85.45659326774502</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.2399185771093</v>
+        <v>116.9254809876975</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.38684564627174</v>
+        <v>105.7662771882052</v>
       </c>
       <c r="AD3" t="n">
-        <v>75454.31206536846</v>
+        <v>85456.59326774502</v>
       </c>
       <c r="AE3" t="n">
-        <v>103239.9185771093</v>
+        <v>116925.4809876975</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.663373284083653e-06</v>
+        <v>1.162034116698838e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.174913194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>93386.84564627174</v>
+        <v>105766.2771882052</v>
       </c>
     </row>
     <row r="4">
@@ -8639,28 +8639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.3691023073004</v>
+        <v>79.2881448403798</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.23142495676022</v>
+        <v>108.4855377166421</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.478811767927</v>
+        <v>98.13183025740194</v>
       </c>
       <c r="AD4" t="n">
-        <v>59369.1023073004</v>
+        <v>79288.1448403798</v>
       </c>
       <c r="AE4" t="n">
-        <v>81231.42495676022</v>
+        <v>108485.5377166421</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.288856743512929e-06</v>
+        <v>1.271112970351502e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.903645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>73478.81176792699</v>
+        <v>98131.83025740195</v>
       </c>
     </row>
     <row r="5">
@@ -8745,28 +8745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>55.64945287170186</v>
+        <v>75.56849540478125</v>
       </c>
       <c r="AB5" t="n">
-        <v>76.14203649962531</v>
+        <v>103.3961492595072</v>
       </c>
       <c r="AC5" t="n">
-        <v>68.87514740213784</v>
+        <v>93.52816589161279</v>
       </c>
       <c r="AD5" t="n">
-        <v>55649.45287170186</v>
+        <v>75568.49540478125</v>
       </c>
       <c r="AE5" t="n">
-        <v>76142.0364996253</v>
+        <v>103396.1492595072</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.683647472621132e-06</v>
+        <v>1.339961026226738e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.75390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>68875.14740213784</v>
+        <v>93528.16589161279</v>
       </c>
     </row>
     <row r="6">
@@ -8851,28 +8851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>54.17501609966902</v>
+        <v>74.0940586327484</v>
       </c>
       <c r="AB6" t="n">
-        <v>74.12464706057143</v>
+        <v>101.3787598204534</v>
       </c>
       <c r="AC6" t="n">
-        <v>67.05029477972275</v>
+        <v>91.70331326919771</v>
       </c>
       <c r="AD6" t="n">
-        <v>54175.01609966902</v>
+        <v>74094.05863274841</v>
       </c>
       <c r="AE6" t="n">
-        <v>74124.64706057143</v>
+        <v>101378.7598204534</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.780370713736306e-06</v>
+        <v>1.356828714897579e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.719184027777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>67050.29477972275</v>
+        <v>91703.31326919771</v>
       </c>
     </row>
     <row r="7">
@@ -8957,28 +8957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>54.30780017579055</v>
+        <v>74.22684270886994</v>
       </c>
       <c r="AB7" t="n">
-        <v>74.30632809154081</v>
+        <v>101.5604408514227</v>
       </c>
       <c r="AC7" t="n">
-        <v>67.21463642808742</v>
+        <v>91.86765491756238</v>
       </c>
       <c r="AD7" t="n">
-        <v>54307.80017579055</v>
+        <v>74226.84270886994</v>
       </c>
       <c r="AE7" t="n">
-        <v>74306.32809154081</v>
+        <v>101560.4408514227</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.770717890278241e-06</v>
+        <v>1.355145346774178e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.723524305555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>67214.63642808741</v>
+        <v>91867.65491756238</v>
       </c>
     </row>
   </sheetData>
@@ -9254,28 +9254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.102905307677</v>
+        <v>169.0298404246531</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.9584877120633</v>
+        <v>231.2740847391715</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.9245548497803</v>
+        <v>209.2016106869483</v>
       </c>
       <c r="AD2" t="n">
-        <v>138102.9053076771</v>
+        <v>169029.8404246531</v>
       </c>
       <c r="AE2" t="n">
-        <v>188958.4877120633</v>
+        <v>231274.0847391715</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.119582305167751e-06</v>
+        <v>7.003016887787968e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.956597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>170924.5548497803</v>
+        <v>209201.6106869483</v>
       </c>
     </row>
     <row r="3">
@@ -9360,28 +9360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.71714161572824</v>
+        <v>108.2214000628345</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.0184629657612</v>
+        <v>148.0732939571182</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.564069307311</v>
+        <v>133.9413866040644</v>
       </c>
       <c r="AD3" t="n">
-        <v>87717.14161572824</v>
+        <v>108221.4000628345</v>
       </c>
       <c r="AE3" t="n">
-        <v>120018.4629657612</v>
+        <v>148073.2939571182</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.87675501939312e-06</v>
+        <v>9.990094042926733e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.474392361111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>108564.069307311</v>
+        <v>133941.3866040644</v>
       </c>
     </row>
     <row r="4">
@@ -9466,28 +9466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.47129846384652</v>
+        <v>90.8088132962468</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.1043807013225</v>
+        <v>124.2486245539728</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.59617313968533</v>
+        <v>112.3905102106141</v>
       </c>
       <c r="AD4" t="n">
-        <v>80471.29846384653</v>
+        <v>90808.81329624679</v>
       </c>
       <c r="AE4" t="n">
-        <v>110104.3807013225</v>
+        <v>124248.6245539728</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.456863883968406e-06</v>
+        <v>1.097624066518989e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.1640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>99596.17313968533</v>
+        <v>112390.5102106141</v>
       </c>
     </row>
     <row r="5">
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.56483980757584</v>
+        <v>86.15434960070267</v>
       </c>
       <c r="AB5" t="n">
-        <v>89.70870634128021</v>
+        <v>117.8801819852865</v>
       </c>
       <c r="AC5" t="n">
-        <v>81.14703331505024</v>
+        <v>106.6298628625159</v>
       </c>
       <c r="AD5" t="n">
-        <v>65564.83980757583</v>
+        <v>86154.34960070267</v>
       </c>
       <c r="AE5" t="n">
-        <v>89708.70634128021</v>
+        <v>117880.1819852865</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.838583798750587e-06</v>
+        <v>1.162513922130594e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.986111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>81147.03331505024</v>
+        <v>106629.8628625159</v>
       </c>
     </row>
     <row r="6">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.79085870990776</v>
+        <v>83.38036850303457</v>
       </c>
       <c r="AB6" t="n">
-        <v>85.91322302404372</v>
+        <v>114.08469866805</v>
       </c>
       <c r="AC6" t="n">
-        <v>77.7137855986153</v>
+        <v>103.196615146081</v>
       </c>
       <c r="AD6" t="n">
-        <v>62790.85870990776</v>
+        <v>83380.36850303458</v>
       </c>
       <c r="AE6" t="n">
-        <v>85913.22302404372</v>
+        <v>114084.69866805</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.082334927765836e-06</v>
+        <v>1.203949998568971e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.884114583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>77713.7855986153</v>
+        <v>103196.615146081</v>
       </c>
     </row>
     <row r="7">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>59.89704291037017</v>
+        <v>80.48655270349698</v>
       </c>
       <c r="AB7" t="n">
-        <v>81.95377658097553</v>
+        <v>110.1252522249818</v>
       </c>
       <c r="AC7" t="n">
-        <v>74.13222316695429</v>
+        <v>99.61505271441996</v>
       </c>
       <c r="AD7" t="n">
-        <v>59897.04291037017</v>
+        <v>80486.55270349699</v>
       </c>
       <c r="AE7" t="n">
-        <v>81953.77658097552</v>
+        <v>110125.2522249818</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.3216627737449e-06</v>
+        <v>1.244634146207115e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.788628472222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>74132.2231669543</v>
+        <v>99615.05271441996</v>
       </c>
     </row>
     <row r="8">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>58.14988748041318</v>
+        <v>78.73939727354001</v>
       </c>
       <c r="AB8" t="n">
-        <v>79.56324144265196</v>
+        <v>107.7347170866582</v>
       </c>
       <c r="AC8" t="n">
-        <v>71.96983734709443</v>
+        <v>97.4526668945601</v>
       </c>
       <c r="AD8" t="n">
-        <v>58149.88748041318</v>
+        <v>78739.39727354</v>
       </c>
       <c r="AE8" t="n">
-        <v>79563.24144265195</v>
+        <v>107734.7170866582</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.439209167621365e-06</v>
+        <v>1.264616254111182e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.745225694444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>71969.83734709442</v>
+        <v>97452.6668945601</v>
       </c>
     </row>
     <row r="9">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>58.07734048626904</v>
+        <v>78.66685027939585</v>
       </c>
       <c r="AB9" t="n">
-        <v>79.4639794447165</v>
+        <v>107.6354550887228</v>
       </c>
       <c r="AC9" t="n">
-        <v>71.88004877492679</v>
+        <v>97.36287832239248</v>
       </c>
       <c r="AD9" t="n">
-        <v>58077.34048626904</v>
+        <v>78666.85027939585</v>
       </c>
       <c r="AE9" t="n">
-        <v>79463.9794447165</v>
+        <v>107635.4550887228</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.424527632437435e-06</v>
+        <v>1.262120490433813e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.751736111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>71880.04877492679</v>
+        <v>97362.87832239247</v>
       </c>
     </row>
   </sheetData>
@@ -10293,28 +10293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.44076004803782</v>
+        <v>95.65705277034553</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.5896202260104</v>
+        <v>130.8821996916615</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.60773366412032</v>
+        <v>118.3909862474451</v>
       </c>
       <c r="AD2" t="n">
-        <v>76440.76004803782</v>
+        <v>95657.05277034553</v>
       </c>
       <c r="AE2" t="n">
-        <v>104589.6202260104</v>
+        <v>130882.1996916615</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.248502243195889e-06</v>
+        <v>1.126752818969353e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.53515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>94607.73366412031</v>
+        <v>118390.986247445</v>
       </c>
     </row>
     <row r="3">
@@ -10399,28 +10399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.64035856673967</v>
+        <v>74.77131043447578</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.12959327036361</v>
+        <v>102.305405613817</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.86389173721268</v>
+        <v>92.54152128859863</v>
       </c>
       <c r="AD3" t="n">
-        <v>55640.35856673967</v>
+        <v>74771.31043447577</v>
       </c>
       <c r="AE3" t="n">
-        <v>76129.59327036362</v>
+        <v>102305.405613817</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.475681163813772e-06</v>
+        <v>1.348042218311674e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.955729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>68863.89173721269</v>
+        <v>92541.52128859863</v>
       </c>
     </row>
     <row r="4">
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>50.70715117018062</v>
+        <v>69.83810303791672</v>
       </c>
       <c r="AB4" t="n">
-        <v>69.37976127264469</v>
+        <v>95.55557361609809</v>
       </c>
       <c r="AC4" t="n">
-        <v>62.75825423190519</v>
+        <v>86.43588378329112</v>
       </c>
       <c r="AD4" t="n">
-        <v>50707.15117018062</v>
+        <v>69838.10303791672</v>
       </c>
       <c r="AE4" t="n">
-        <v>69379.76127264468</v>
+        <v>95555.57361609809</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.070078453996066e-06</v>
+        <v>1.455226115545597e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.738715277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>62758.25423190519</v>
+        <v>86435.88378329112</v>
       </c>
     </row>
     <row r="5">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>50.41285031390974</v>
+        <v>69.54380218164584</v>
       </c>
       <c r="AB5" t="n">
-        <v>68.97708585745762</v>
+        <v>95.15289820091105</v>
       </c>
       <c r="AC5" t="n">
-        <v>62.39400959318499</v>
+        <v>86.07163914457091</v>
       </c>
       <c r="AD5" t="n">
-        <v>50412.85031390974</v>
+        <v>69543.80218164585</v>
       </c>
       <c r="AE5" t="n">
-        <v>68977.08585745763</v>
+        <v>95152.89820091105</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.119458838672054e-06</v>
+        <v>1.464130567439816e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.721354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>62394.00959318499</v>
+        <v>86071.63914457092</v>
       </c>
     </row>
   </sheetData>
@@ -10908,28 +10908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.0710496627558</v>
+        <v>85.40389846111584</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.76956911442545</v>
+        <v>116.8533816285367</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.0112102375662</v>
+        <v>105.7010588906906</v>
       </c>
       <c r="AD2" t="n">
-        <v>67071.0496627558</v>
+        <v>85403.89846111584</v>
       </c>
       <c r="AE2" t="n">
-        <v>91769.56911442545</v>
+        <v>116853.3816285366</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.915387260533801e-06</v>
+        <v>1.290190217483855e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.328993055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>83011.21023756621</v>
+        <v>105701.0588906906</v>
       </c>
     </row>
     <row r="3">
@@ -11014,28 +11014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.27569389319616</v>
+        <v>65.69379403757679</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.68469004106609</v>
+        <v>89.88514720782653</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.51127400909311</v>
+        <v>81.30663491292972</v>
       </c>
       <c r="AD3" t="n">
-        <v>47275.69389319616</v>
+        <v>65693.79403757679</v>
       </c>
       <c r="AE3" t="n">
-        <v>64684.6900410661</v>
+        <v>89885.14720782654</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.356287378956169e-06</v>
+        <v>1.559016122255581e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.75390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>58511.27400909311</v>
+        <v>81306.63491292973</v>
       </c>
     </row>
     <row r="4">
@@ -11120,28 +11120,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>47.31588921552189</v>
+        <v>65.73398935990251</v>
       </c>
       <c r="AB4" t="n">
-        <v>64.73968705436459</v>
+        <v>89.94014422112504</v>
       </c>
       <c r="AC4" t="n">
-        <v>58.56102218463121</v>
+        <v>81.35638308846785</v>
       </c>
       <c r="AD4" t="n">
-        <v>47315.88921552189</v>
+        <v>65733.98935990251</v>
       </c>
       <c r="AE4" t="n">
-        <v>64739.68705436459</v>
+        <v>89940.14422112504</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.366574977328535e-06</v>
+        <v>1.560935459276253e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.751736111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>58561.02218463121</v>
+        <v>81356.38308846785</v>
       </c>
     </row>
   </sheetData>
@@ -19710,28 +19710,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.66930196455968</v>
+        <v>66.63621411960331</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.90568313792497</v>
+        <v>91.17460794069426</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.37503548408145</v>
+        <v>82.47303132322249</v>
       </c>
       <c r="AD2" t="n">
-        <v>57669.30196455968</v>
+        <v>66636.2141196033</v>
       </c>
       <c r="AE2" t="n">
-        <v>78905.68313792496</v>
+        <v>91174.60794069426</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.852952892206234e-06</v>
+        <v>1.510151962753737e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.031684027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>71375.03548408145</v>
+        <v>82473.03132322249</v>
       </c>
     </row>
     <row r="3">
@@ -19816,28 +19816,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.95910513632906</v>
+        <v>62.80740957474261</v>
       </c>
       <c r="AB3" t="n">
-        <v>61.51503110323912</v>
+        <v>85.93586864748336</v>
       </c>
       <c r="AC3" t="n">
-        <v>55.64412287164708</v>
+        <v>77.7342699555372</v>
       </c>
       <c r="AD3" t="n">
-        <v>44959.10513632906</v>
+        <v>62807.4095747426</v>
       </c>
       <c r="AE3" t="n">
-        <v>61515.03110323913</v>
+        <v>85935.86864748337</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.488842620380076e-06</v>
+        <v>1.632435915590092e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.803819444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>55644.12287164709</v>
+        <v>77734.26995553719</v>
       </c>
     </row>
   </sheetData>
@@ -20113,28 +20113,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.50956380558235</v>
+        <v>57.91172006423592</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.74116940657646</v>
+        <v>79.23737027663358</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.27604727375588</v>
+        <v>71.67506686779767</v>
       </c>
       <c r="AD2" t="n">
-        <v>49509.56380558235</v>
+        <v>57911.72006423592</v>
       </c>
       <c r="AE2" t="n">
-        <v>67741.16940657646</v>
+        <v>79237.37027663358</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.310270984476534e-06</v>
+        <v>1.714075929292179e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.075086805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>61276.04727375588</v>
+        <v>71675.06686779766</v>
       </c>
     </row>
   </sheetData>
@@ -20410,28 +20410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.3739385661749</v>
+        <v>123.1091391605288</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.4407832824838</v>
+        <v>168.4433553912677</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.9418734394278</v>
+        <v>152.367357964506</v>
       </c>
       <c r="AD2" t="n">
-        <v>103373.9385661749</v>
+        <v>123109.1391605288</v>
       </c>
       <c r="AE2" t="n">
-        <v>141440.7832824838</v>
+        <v>168443.3553912677</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.273817460337321e-06</v>
+        <v>9.265889237444271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.051649305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>127941.8734394278</v>
+        <v>152367.357964506</v>
       </c>
     </row>
     <row r="3">
@@ -20516,28 +20516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.42686632958294</v>
+        <v>82.33718180832123</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.09763375993006</v>
+        <v>112.657364610195</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.6398946783095</v>
+        <v>101.9055038474313</v>
       </c>
       <c r="AD3" t="n">
-        <v>72426.86632958293</v>
+        <v>82337.18180832123</v>
       </c>
       <c r="AE3" t="n">
-        <v>99097.63375993006</v>
+        <v>112657.364610195</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.90360569218896e-06</v>
+        <v>1.212936286928695e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.094618055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>89639.8946783095</v>
+        <v>101905.5038474313</v>
       </c>
     </row>
     <row r="4">
@@ -20622,28 +20622,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.65327369450026</v>
+        <v>76.38838478030314</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.51550843482659</v>
+        <v>104.5179580740621</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.1175371035239</v>
+        <v>94.5429108473755</v>
       </c>
       <c r="AD4" t="n">
-        <v>56653.27369450025</v>
+        <v>76388.38478030314</v>
       </c>
       <c r="AE4" t="n">
-        <v>77515.50843482658</v>
+        <v>104517.9580740621</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.545180938745663e-06</v>
+        <v>1.325658526877064e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.83203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>70117.53710352391</v>
+        <v>94542.91084737549</v>
       </c>
     </row>
     <row r="5">
@@ -20728,28 +20728,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>54.90430084784067</v>
+        <v>74.63941193364357</v>
       </c>
       <c r="AB5" t="n">
-        <v>75.12248662679177</v>
+        <v>102.1249362660273</v>
       </c>
       <c r="AC5" t="n">
-        <v>67.95290193821998</v>
+        <v>92.37827568207157</v>
       </c>
       <c r="AD5" t="n">
-        <v>54904.30084784067</v>
+        <v>74639.41193364357</v>
       </c>
       <c r="AE5" t="n">
-        <v>75122.48662679177</v>
+        <v>102124.9362660273</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.673495988057003e-06</v>
+        <v>1.348202974866737e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.784288194444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>67952.90193821998</v>
+        <v>92378.27568207157</v>
       </c>
     </row>
     <row r="6">
@@ -20834,28 +20834,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>53.12135442687188</v>
+        <v>72.85646551267477</v>
       </c>
       <c r="AB6" t="n">
-        <v>72.68298067557882</v>
+        <v>99.68543031481437</v>
       </c>
       <c r="AC6" t="n">
-        <v>65.74621901112189</v>
+        <v>90.17159275497349</v>
       </c>
       <c r="AD6" t="n">
-        <v>53121.35442687188</v>
+        <v>72856.46551267477</v>
       </c>
       <c r="AE6" t="n">
-        <v>72682.98067557882</v>
+        <v>99685.43031481437</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.888864378574194e-06</v>
+        <v>1.386042351500211e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>65746.2190111219</v>
+        <v>90171.59275497349</v>
       </c>
     </row>
   </sheetData>
@@ -21131,28 +21131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.1357473245224</v>
+        <v>160.824126787197</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.057470673313</v>
+        <v>220.0466653298734</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.0639155775314</v>
+        <v>199.045720428288</v>
       </c>
       <c r="AD2" t="n">
-        <v>130135.7473245224</v>
+        <v>160824.126787197</v>
       </c>
       <c r="AE2" t="n">
-        <v>178057.470673313</v>
+        <v>220046.6653298734</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.326272836872299e-06</v>
+        <v>7.397444420843007e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.759114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>161063.9155775314</v>
+        <v>199045.720428288</v>
       </c>
     </row>
     <row r="3">
@@ -21237,28 +21237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.10296527807147</v>
+        <v>104.4481866223101</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.0733874543748</v>
+        <v>142.9106168653667</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.0909448622727</v>
+        <v>129.2714281680852</v>
       </c>
       <c r="AD3" t="n">
-        <v>84102.96527807147</v>
+        <v>104448.1866223101</v>
       </c>
       <c r="AE3" t="n">
-        <v>115073.3874543748</v>
+        <v>142910.6168653667</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.088097392462803e-06</v>
+        <v>1.040996806895381e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.383246527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>104090.9448622727</v>
+        <v>129271.4281680852</v>
       </c>
     </row>
     <row r="4">
@@ -21343,28 +21343,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.10232270291675</v>
+        <v>87.36031898388322</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.4947994364998</v>
+        <v>119.5302424989676</v>
       </c>
       <c r="AC4" t="n">
-        <v>95.42652384118789</v>
+        <v>108.1224439166462</v>
       </c>
       <c r="AD4" t="n">
-        <v>77102.32270291675</v>
+        <v>87360.31898388322</v>
       </c>
       <c r="AE4" t="n">
-        <v>105494.7994364998</v>
+        <v>119530.2424989675</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.690587110411964e-06</v>
+        <v>1.144015834374943e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.077256944444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>95426.52384118788</v>
+        <v>108122.4439166462</v>
       </c>
     </row>
     <row r="5">
@@ -21449,28 +21449,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.41213584231738</v>
+        <v>82.84260853257661</v>
       </c>
       <c r="AB5" t="n">
-        <v>85.39503768853311</v>
+        <v>113.3489117521742</v>
       </c>
       <c r="AC5" t="n">
-        <v>77.24505514424794</v>
+        <v>102.5310507007727</v>
       </c>
       <c r="AD5" t="n">
-        <v>62412.13584231738</v>
+        <v>82842.6085325766</v>
       </c>
       <c r="AE5" t="n">
-        <v>85395.03768853311</v>
+        <v>113348.9117521742</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.101198704295411e-06</v>
+        <v>1.214225840975047e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.899305555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>77245.05514424795</v>
+        <v>102531.0507007727</v>
       </c>
     </row>
     <row r="6">
@@ -21555,28 +21555,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.99117516475152</v>
+        <v>80.42164785501073</v>
       </c>
       <c r="AB6" t="n">
-        <v>82.08257248424199</v>
+        <v>110.0364465478831</v>
       </c>
       <c r="AC6" t="n">
-        <v>74.2487269699792</v>
+        <v>99.53472252650398</v>
       </c>
       <c r="AD6" t="n">
-        <v>59991.17516475152</v>
+        <v>80421.64785501073</v>
       </c>
       <c r="AE6" t="n">
-        <v>82082.57248424199</v>
+        <v>110036.4465478831</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.309588595713959e-06</v>
+        <v>1.249858190060748e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.816840277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>74248.72696997921</v>
+        <v>99534.72252650399</v>
       </c>
     </row>
     <row r="7">
@@ -21661,28 +21661,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>57.6364088879246</v>
+        <v>78.06688157818382</v>
       </c>
       <c r="AB7" t="n">
-        <v>78.86067737933271</v>
+        <v>106.8145514429739</v>
       </c>
       <c r="AC7" t="n">
-        <v>71.3343250119233</v>
+        <v>96.62032056844807</v>
       </c>
       <c r="AD7" t="n">
-        <v>57636.4088879246</v>
+        <v>78066.88157818382</v>
       </c>
       <c r="AE7" t="n">
-        <v>78860.67737933272</v>
+        <v>106814.5514429739</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.501751405423686e-06</v>
+        <v>1.282715889012727e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.745225694444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>71334.3250119233</v>
+        <v>96620.32056844806</v>
       </c>
     </row>
     <row r="8">
@@ -21767,28 +21767,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>57.02267545594477</v>
+        <v>77.453148146204</v>
       </c>
       <c r="AB8" t="n">
-        <v>78.02094022169025</v>
+        <v>105.9748142853314</v>
       </c>
       <c r="AC8" t="n">
-        <v>70.57473119002745</v>
+        <v>95.86072674655222</v>
       </c>
       <c r="AD8" t="n">
-        <v>57022.67545594477</v>
+        <v>77453.148146204</v>
       </c>
       <c r="AE8" t="n">
-        <v>78020.94022169025</v>
+        <v>105974.8142853314</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.533351511909284e-06</v>
+        <v>1.288119155062608e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.734375</v>
       </c>
       <c r="AH8" t="n">
-        <v>70574.73119002745</v>
+        <v>95860.72674655222</v>
       </c>
     </row>
   </sheetData>
@@ -22064,28 +22064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.92032789586779</v>
+        <v>64.02559262876987</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.56670672276601</v>
+        <v>87.60264044444605</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.30911225661007</v>
+        <v>79.24196739152718</v>
       </c>
       <c r="AD2" t="n">
-        <v>47920.32789586778</v>
+        <v>64025.59262876987</v>
       </c>
       <c r="AE2" t="n">
-        <v>65566.70672276602</v>
+        <v>87602.64044444605</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.744322492282271e-06</v>
+        <v>1.6599650062031e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.415798611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>59309.11225661007</v>
+        <v>79241.96739152719</v>
       </c>
     </row>
   </sheetData>
@@ -22361,28 +22361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.89653318514767</v>
+        <v>87.48242893471399</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.26727620440992</v>
+        <v>119.697318720805</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.27053966843727</v>
+        <v>108.2735746183645</v>
       </c>
       <c r="AD2" t="n">
-        <v>68896.53318514768</v>
+        <v>87482.428934714</v>
       </c>
       <c r="AE2" t="n">
-        <v>94267.27620440992</v>
+        <v>119697.318720805</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.813544674184426e-06</v>
+        <v>1.255349638710215e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.328993055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>85270.53966843727</v>
+        <v>108273.5746183645</v>
       </c>
     </row>
     <row r="3">
@@ -22467,28 +22467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.01693068239064</v>
+        <v>68.68807777797755</v>
       </c>
       <c r="AB3" t="n">
-        <v>68.43537115087206</v>
+        <v>93.98205831991639</v>
       </c>
       <c r="AC3" t="n">
-        <v>61.9039953778944</v>
+        <v>85.0125425785339</v>
       </c>
       <c r="AD3" t="n">
-        <v>50016.93068239064</v>
+        <v>68688.07777797755</v>
       </c>
       <c r="AE3" t="n">
-        <v>68435.37115087206</v>
+        <v>93982.0583199164</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.045425691986861e-06</v>
+        <v>1.482315405367842e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.819010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>61903.9953778944</v>
+        <v>85012.5425785339</v>
       </c>
     </row>
     <row r="4">
@@ -22573,28 +22573,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>48.37402244462883</v>
+        <v>67.04516954021575</v>
       </c>
       <c r="AB4" t="n">
-        <v>66.1874716199714</v>
+        <v>91.73415878901572</v>
       </c>
       <c r="AC4" t="n">
-        <v>59.87063222327538</v>
+        <v>82.97917942391489</v>
       </c>
       <c r="AD4" t="n">
-        <v>48374.02244462883</v>
+        <v>67045.16954021575</v>
       </c>
       <c r="AE4" t="n">
-        <v>66187.4716199714</v>
+        <v>91734.15878901572</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.263437383098752e-06</v>
+        <v>1.522482588641602e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.745225694444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>59870.63222327538</v>
+        <v>82979.17942391489</v>
       </c>
     </row>
   </sheetData>
@@ -22870,28 +22870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.61414030432873</v>
+        <v>101.0416687861332</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.6680673260931</v>
+        <v>138.2496688769514</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.0106237076363</v>
+        <v>125.0553145140012</v>
       </c>
       <c r="AD2" t="n">
-        <v>81614.14030432873</v>
+        <v>101041.6687861332</v>
       </c>
       <c r="AE2" t="n">
-        <v>111668.0673260931</v>
+        <v>138249.6688769514</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.907244937553959e-06</v>
+        <v>1.055286198036167e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.695746527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>101010.6237076363</v>
+        <v>125055.3145140012</v>
       </c>
     </row>
     <row r="3">
@@ -22976,28 +22976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.57479286420348</v>
+        <v>75.91698049143635</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.40812750048472</v>
+        <v>103.8729619291455</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.02040445484552</v>
+        <v>93.95947222927171</v>
       </c>
       <c r="AD3" t="n">
-        <v>56574.79286420348</v>
+        <v>75916.98049143635</v>
       </c>
       <c r="AE3" t="n">
-        <v>77408.12750048473</v>
+        <v>103872.9619291455</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.439323078477469e-06</v>
+        <v>1.328980777069309e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.936197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>70020.40445484551</v>
+        <v>93959.47222927171</v>
       </c>
     </row>
     <row r="4">
@@ -23082,28 +23082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>53.21219780796324</v>
+        <v>72.55438543519611</v>
       </c>
       <c r="AB4" t="n">
-        <v>72.80727659731507</v>
+        <v>99.27211102597582</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.8586523045381</v>
+        <v>89.79772007896429</v>
       </c>
       <c r="AD4" t="n">
-        <v>53212.19780796324</v>
+        <v>72554.38543519611</v>
       </c>
       <c r="AE4" t="n">
-        <v>72807.27659731507</v>
+        <v>99272.11102597581</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.81987736252927e-06</v>
+        <v>1.396964022695432e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.79296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>65858.6523045381</v>
+        <v>89797.7200789643</v>
       </c>
     </row>
     <row r="5">
@@ -23188,28 +23188,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>51.19302502658726</v>
+        <v>70.53521265382014</v>
       </c>
       <c r="AB5" t="n">
-        <v>70.04455531822165</v>
+        <v>96.50938974688241</v>
       </c>
       <c r="AC5" t="n">
-        <v>63.35960126681682</v>
+        <v>87.298669041243</v>
       </c>
       <c r="AD5" t="n">
-        <v>51193.02502658726</v>
+        <v>70535.21265382014</v>
       </c>
       <c r="AE5" t="n">
-        <v>70044.55531822165</v>
+        <v>96509.3897468824</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.037322578773571e-06</v>
+        <v>1.435809023699676e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.717013888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>63359.60126681682</v>
+        <v>87298.669041243</v>
       </c>
     </row>
     <row r="6">
@@ -23294,28 +23294,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>51.34201458096977</v>
+        <v>70.68420220820262</v>
       </c>
       <c r="AB6" t="n">
-        <v>70.24840939948291</v>
+        <v>96.71324382814367</v>
       </c>
       <c r="AC6" t="n">
-        <v>63.54399980067358</v>
+        <v>87.48306757509977</v>
       </c>
       <c r="AD6" t="n">
-        <v>51342.01458096976</v>
+        <v>70684.20220820262</v>
       </c>
       <c r="AE6" t="n">
-        <v>70248.40939948292</v>
+        <v>96713.24382814368</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.035712618819887e-06</v>
+        <v>1.435521416103162e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.717013888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>63543.99980067358</v>
+        <v>87483.06757509976</v>
       </c>
     </row>
   </sheetData>
